--- a/data/trans_camb/P2C_R1-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.1136600486471108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.29286930978366</v>
+        <v>13.29286930978365</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.5301411842521069</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.411040153496523</v>
+        <v>-1.293719084583082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5250756963233955</v>
+        <v>-0.5189643320038873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.803307243538773</v>
+        <v>8.035824429992202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.643339841502329</v>
+        <v>-1.588780787943601</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.287269648579347</v>
+        <v>-1.289421829819871</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.0091988601792</v>
+        <v>14.46898231301044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.252432725781976</v>
+        <v>-1.326033966841859</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8751484674110626</v>
+        <v>-0.8514832125835859</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.96064586239113</v>
+        <v>13.34495409992192</v>
       </c>
     </row>
     <row r="6">
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7957627001736868</v>
+        <v>0.8069549860047249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.14636966430487</v>
+        <v>20.40815456973679</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2018449713579509</v>
+        <v>0.3182993823008713</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.758435036640965</v>
+        <v>0.7493863692761465</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.37689517028724</v>
+        <v>23.26967273947231</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0258277415203894</v>
+        <v>0.01236976867222109</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4978866601544935</v>
+        <v>0.5528020033522114</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.06491409260438</v>
+        <v>20.70731254818084</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.494609380181204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57.84598835211719</v>
+        <v>57.84598835211717</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.5808675274221538</v>
@@ -786,19 +786,17 @@
         <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8140596340498356</v>
+        <v>-0.8076742532597451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>6.615331008045852</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>7.262055262732755</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.7540442614796049</v>
+        <v>-0.7625408304363427</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>9.876000849632753</v>
+        <v>10.08718932723909</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +810,20 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>1.074078061688842</v>
+        <v>1.545018149726056</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.341265594528754</v>
+        <v>2.283003226429858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>50.75047841248797</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.6334069928142864</v>
-      </c>
+        <v>62.9632686492797</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>1.752305919076578</v>
+        <v>2.276581210834618</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>66.68673841513562</v>
+        <v>69.29542958749313</v>
       </c>
     </row>
     <row r="10">
@@ -877,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1752275428873078</v>
+        <v>-0.1740576209698971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1962303431222063</v>
+        <v>0.1900613804032881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.424779828824008</v>
+        <v>7.570200789996923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.08952631818129073</v>
+        <v>-0.152125022080746</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5505972086034272</v>
+        <v>-0.5011409933961761</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.39180343419264</v>
+        <v>10.67774972886252</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008598601499295762</v>
+        <v>0.01925176056039076</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08179494423192959</v>
+        <v>-0.03965201366021786</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>10.26349052574028</v>
+        <v>10.45539803571143</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.043042548916216</v>
+        <v>0.9983207821313844</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.259870225197924</v>
+        <v>2.444041523987136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.0065418862207</v>
+        <v>15.82986693765247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.913551190220252</v>
+        <v>1.84967740234349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.356415203571921</v>
+        <v>1.343232399027625</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.58037997834784</v>
+        <v>16.80993083414445</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.269354623461721</v>
+        <v>1.203241061246426</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.467372822155646</v>
+        <v>1.335457270273124</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>15.09575448701893</v>
+        <v>15.2522177056427</v>
       </c>
     </row>
     <row r="13">
@@ -985,20 +981,20 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.5933865851529002</v>
+        <v>-0.5869614452659172</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>10.40263136827106</v>
+        <v>7.297097280669838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3218281433137616</v>
+        <v>-0.4602673884644355</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3619809105601733</v>
+        <v>-0.4882445215889171</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14.7471595797241</v>
+        <v>14.81437264662159</v>
       </c>
     </row>
     <row r="15">
@@ -1015,13 +1011,13 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>12.74855797564267</v>
+        <v>12.70126245199553</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16.20097895169263</v>
+        <v>14.58389254706514</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>173.7938572914291</v>
+        <v>167.5109379861881</v>
       </c>
     </row>
     <row r="16">
@@ -1071,31 +1067,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.443544890158889</v>
+        <v>-1.601738507662273</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9747380755761512</v>
+        <v>-1.037617458816845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.466921892527012</v>
+        <v>8.417371901425621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2991472421046432</v>
+        <v>-0.4409383348462307</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1901981414129371</v>
+        <v>0.1193516453091545</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.55281074544332</v>
+        <v>11.45051315788998</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6153756720498713</v>
+        <v>-0.5377328254233312</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1015914869172239</v>
+        <v>-0.04716264039009773</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.29666148488127</v>
+        <v>11.23807944238366</v>
       </c>
     </row>
     <row r="18">
@@ -1106,31 +1102,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.151870858776611</v>
+        <v>1.210326201391956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.954973800676063</v>
+        <v>2.120484024255112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.35302298460055</v>
+        <v>23.10849822296271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.624391010342031</v>
+        <v>1.616835162179149</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.82851285175943</v>
+        <v>2.740428156563603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.74610345224033</v>
+        <v>19.66847758206289</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.042483983553142</v>
+        <v>1.075491084833198</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.901409139971667</v>
+        <v>1.812797483228953</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.15145116717862</v>
+        <v>18.61211493729527</v>
       </c>
     </row>
     <row r="19">
@@ -1176,31 +1172,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7757067410096602</v>
+        <v>-0.7776502695126554</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6231494314303191</v>
+        <v>-0.6224881205346774</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>3.772693473521989</v>
+        <v>3.964367866015141</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5856781072660333</v>
+        <v>-0.7453965939552636</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2919538155112717</v>
+        <v>-0.2570859816086661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>10.38149085268019</v>
+        <v>9.712773121662932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5530964865524211</v>
+        <v>-0.5037230635571213</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1754457241993341</v>
+        <v>-0.1646534302291088</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>8.175549827600122</v>
+        <v>8.084205115100843</v>
       </c>
     </row>
     <row r="21">
@@ -1211,27 +1207,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.636777302900644</v>
+        <v>2.516894896413292</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.541312232558754</v>
+        <v>4.544408928134406</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>37.38255718977452</v>
-      </c>
-      <c r="F21" s="6" t="inlineStr"/>
+        <v>42.29572578282018</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>10.66288371506049</v>
+      </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>134.9735195081644</v>
+        <v>112.8468311774294</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.018906195323603</v>
+        <v>2.540089990529995</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.873427357053373</v>
+        <v>3.654801121996284</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>45.83326228492801</v>
+        <v>44.59783683209105</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1259,7 @@
         <v>-1.555130244435192</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.66324984778746</v>
+        <v>15.66324984778747</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.19176286438651</v>
@@ -1270,7 +1268,7 @@
         <v>-0.673971748950313</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>17.68541203736658</v>
+        <v>17.68541203736659</v>
       </c>
     </row>
     <row r="23">
@@ -1281,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4468632865274519</v>
+        <v>-0.4476835997602134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.098136095161425</v>
+        <v>-1.406980358264388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.18398161230702</v>
+        <v>12.38758326442376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.27602466705302</v>
+        <v>-2.453329538026429</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.790640003169934</v>
+        <v>-4.897509190555961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.695965860150512</v>
+        <v>9.537042559763256</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6257156555101804</v>
+        <v>-0.68803632121306</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.266151532332671</v>
+        <v>-2.302986536657325</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.09166848172826</v>
+        <v>12.40182304369424</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.79691627026543</v>
+        <v>3.759508980671325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.092209341976139</v>
+        <v>1.813429497689379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.096239980729</v>
+        <v>28.73120433067816</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.506483997006253</v>
+        <v>4.048998831359911</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5592994542212613</v>
+        <v>0.3654933137472032</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.24955066095163</v>
+        <v>22.55444318748029</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.231081794811073</v>
+        <v>3.352595907369934</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5832202022763562</v>
+        <v>0.7047589125496259</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>23.636462410872</v>
+        <v>22.98470245605763</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1373,7 @@
         <v>-0.414729438403378</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>10.88274250903373</v>
+        <v>10.88274250903374</v>
       </c>
     </row>
     <row r="26">
@@ -1385,28 +1383,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>6.281948389403272</v>
+        <v>5.986206999325269</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6305281018099013</v>
-      </c>
-      <c r="G26" s="6" t="inlineStr"/>
+        <v>-0.6616081940302461</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H26" s="6" t="n">
-        <v>2.010962206840498</v>
+        <v>1.627532536930737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3470200065385861</v>
+        <v>-0.3743987472535597</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8772658571938945</v>
+        <v>-0.8578543440866589</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4.440412848582787</v>
+        <v>4.356330042260583</v>
       </c>
     </row>
     <row r="27">
@@ -1420,20 +1418,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4.504418474671081</v>
-      </c>
-      <c r="G27" s="6" t="inlineStr"/>
+        <v>3.517569767583843</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.8822980901517812</v>
+      </c>
       <c r="H27" s="6" t="n">
-        <v>20.252766919579</v>
+        <v>19.52584157703427</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.735400148009756</v>
+        <v>4.157441119251049</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.935916655101902</v>
+        <v>1.390787655653747</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>26.85927514505202</v>
+        <v>25.56841577891534</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1454,7 @@
         <v>0.3497667615171558</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13.48620510973312</v>
+        <v>13.48620510973313</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.3556227564020796</v>
@@ -1463,7 +1463,7 @@
         <v>0.1835743977237747</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>15.56896757990843</v>
+        <v>15.56896757990844</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.2406125886331296</v>
@@ -1483,31 +1483,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4261853659182074</v>
+        <v>-0.4434544883461397</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.246981683704607</v>
+        <v>-0.2591557031701467</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.91609447149272</v>
+        <v>10.52948510896906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2545683169066429</v>
+        <v>-0.2866636663493458</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4306723434594831</v>
+        <v>-0.3761353613306937</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.63606999965643</v>
+        <v>13.66497793949595</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1707652062588924</v>
+        <v>-0.1770504165427366</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1410601187877949</v>
+        <v>-0.2009699415858038</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.07006409903048</v>
+        <v>12.91704527449894</v>
       </c>
     </row>
     <row r="30">
@@ -1518,31 +1518,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6353456575522793</v>
+        <v>0.6295736072835917</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8821193936348509</v>
+        <v>0.904061268126003</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.23421571639063</v>
+        <v>16.4045554913627</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9471267076667157</v>
+        <v>0.930546200008203</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7538366003506132</v>
+        <v>0.7498092072581934</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.65783083443111</v>
+        <v>17.82168672433978</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6650936874714297</v>
+        <v>0.6332723828169848</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.693812486179628</v>
+        <v>0.6435923782479652</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>16.53155136973496</v>
+        <v>16.4511652573427</v>
       </c>
     </row>
     <row r="31">
@@ -1588,31 +1588,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4925014317697897</v>
+        <v>-0.5475823351061161</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4228654468506057</v>
+        <v>-0.3691492295734413</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>11.18471195607295</v>
+        <v>11.07321278551224</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2519406764080703</v>
+        <v>-0.2967634958339248</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4045475362978118</v>
+        <v>-0.3815469137822269</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>11.67090834676033</v>
+        <v>11.41673252715473</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2038719306068701</v>
+        <v>-0.2041419719247276</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1823942285196205</v>
+        <v>-0.2164772481045899</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>14.0547316466192</v>
+        <v>13.36737853420211</v>
       </c>
     </row>
     <row r="33">
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.80520304484675</v>
+        <v>1.858249680312892</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.429070767648097</v>
+        <v>2.636926920337669</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>47.21541012956725</v>
+        <v>46.47173711520188</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.881226691587118</v>
+        <v>1.872721885615525</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.466362478168586</v>
+        <v>1.6789324673173</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>36.96480474496715</v>
+        <v>35.2504002830857</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.367282491414015</v>
+        <v>1.180664552897561</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.431266360374686</v>
+        <v>1.225485149168298</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>34.66153667973071</v>
+        <v>31.5680353456279</v>
       </c>
     </row>
     <row r="34">
